--- a/Plotly/Restaurant_Jobs_Labor_Market_Tightness.xlsx
+++ b/Plotly/Restaurant_Jobs_Labor_Market_Tightness.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Python\Plotly\"/>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -585,6 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -944,7 +945,7 @@
   <dimension ref="A1:P330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1156,7 @@
       <c r="J6">
         <v>133</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="6">
@@ -1255,7 +1256,7 @@
       <c r="J8">
         <v>217</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="6">
@@ -1355,7 +1356,7 @@
       <c r="J10">
         <v>329</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="6">
